--- a/content/plataformes/dadesref/entitats/Departaments.xlsx
+++ b/content/plataformes/dadesref/entitats/Departaments.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/09.Departaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{592CEE86-2DAF-48C0-A8F4-87F236F5EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A06D06-FDA0-40BE-975C-CF8BA9E7724D}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="468" windowWidth="19140" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="465" windowWidth="19140" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Departaments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Codi</t>
   </si>
@@ -144,13 +143,25 @@
   </si>
   <si>
     <t>EDU</t>
+  </si>
+  <si>
+    <t>Departament de Política Lingüística</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>Departament d'Esports</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +193,18 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,10 +303,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Hoja2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -295,7 +322,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -314,7 +340,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -347,7 +372,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -362,7 +386,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -381,7 +404,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -405,14 +427,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:C21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <sortState ref="A4:E19">
     <sortCondition ref="E4:E19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{3F578376-31B2-4239-A596-5DBFDC059F73}" name="Codi" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="2"/>
+    <tableColumn id="2" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" name="Codi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,19 +702,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -700,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -711,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -722,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3392</v>
       </c>
@@ -733,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>19775</v>
       </c>
@@ -744,7 +768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>19772</v>
       </c>
@@ -755,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>21647</v>
       </c>
@@ -766,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>19769</v>
       </c>
@@ -777,7 +801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1599</v>
       </c>
@@ -788,7 +812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>21648</v>
       </c>
@@ -799,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4163</v>
       </c>
@@ -810,7 +834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2803</v>
       </c>
@@ -821,7 +845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13760</v>
       </c>
@@ -832,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>19774</v>
       </c>
@@ -843,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2221</v>
       </c>
@@ -854,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13757</v>
       </c>
@@ -865,25 +889,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
+        <v>23458</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>23459</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>99998</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>99999</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -892,7 +938,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C20:C951" numberStoredAsText="1"/>
+    <ignoredError sqref="C22:C953" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -901,6 +947,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1032,25 +1096,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1066,28 +1136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/plataformes/dadesref/entitats/Departaments.xlsx
+++ b/content/plataformes/dadesref/entitats/Departaments.xlsx
@@ -43,12 +43,6 @@
     <t>Departament de la Presidència</t>
   </si>
   <si>
-    <t>Departament d'Interior</t>
-  </si>
-  <si>
-    <t>Departament d'Educació</t>
-  </si>
-  <si>
     <t>Departament de Salut</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>PRE</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>SLT</t>
   </si>
   <si>
@@ -97,54 +88,18 @@
     <t>EMT</t>
   </si>
   <si>
-    <t>Departament d'Economia i Hisenda</t>
-  </si>
-  <si>
-    <t>ECO</t>
-  </si>
-  <si>
-    <t>Departament d'Igualtat i Feminismes</t>
-  </si>
-  <si>
     <t>Departament de Recerca i Universitats</t>
   </si>
   <si>
     <t>REU</t>
   </si>
   <si>
-    <t>Departament d'Acció Climàtica, Alimentació i Agenda Rural</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>Departament de Drets Socials</t>
-  </si>
-  <si>
-    <t>DSO</t>
-  </si>
-  <si>
     <t>IFE</t>
   </si>
   <si>
-    <t>Departament de Territori</t>
-  </si>
-  <si>
-    <t>Departament d'Acció Exterior i Unió Europea</t>
-  </si>
-  <si>
-    <t>Departament de Justícia, Drets i Memòria</t>
-  </si>
-  <si>
     <t>TER</t>
   </si>
   <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>EDU</t>
-  </si>
-  <si>
     <t>Departament de Política Lingüística</t>
   </si>
   <si>
@@ -155,6 +110,51 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>Departament de Territori, Habitatge i Transició Ecològica</t>
+  </si>
+  <si>
+    <t>Departament d'Economia i Finances</t>
+  </si>
+  <si>
+    <t>Departament d'Igualtat i Feminisme</t>
+  </si>
+  <si>
+    <t>Departament d'Unió Europea i Acció Exterior</t>
+  </si>
+  <si>
+    <t>Departament d'Educació i Formació Professional</t>
+  </si>
+  <si>
+    <t>Departament d'Agricultura, Ramaderia, Pesca i Alimentació</t>
+  </si>
+  <si>
+    <t>Departament d'Interior i Seguretat Pública</t>
+  </si>
+  <si>
+    <t>Departament de Drets Socials i Inclusió</t>
+  </si>
+  <si>
+    <t>Departament de Justícia i Qualitat Democràtica</t>
+  </si>
+  <si>
+    <t>ECF</t>
+  </si>
+  <si>
+    <t>UEX</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>DSI</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,15 +718,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>3392</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>19775</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>19772</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>21647</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>19769</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>1599</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>21648</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>4163</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>2803</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>13760</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>19774</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>2221</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>13757</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>23458</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>23459</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>99999</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -947,24 +947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1096,31 +1078,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1136,4 +1112,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>